--- a/Bases/emdata_dummies_countries.xlsx
+++ b/Bases/emdata_dummies_countries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e8b1635bbae8cdf/Documents/Codigo_compartido_Melo/Climate_Change_and_Financial_Stability/Climate-Change-and-Financial-Stability/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2D0278060B5EA914A2ABFC2BA442C280D0800B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E1F4CF-FF81-4D1E-8DBF-F46FA79B51DF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_2D0278060B5EA914A2ABFC2BA442C280D0800B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6A92443-9F9B-48A4-AA23-3B97971787E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2375,6 +2375,10 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">

--- a/Bases/emdata_dummies_countries.xlsx
+++ b/Bases/emdata_dummies_countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e8b1635bbae8cdf/Documents/Codigo_compartido_Melo/Climate_Change_and_Financial_Stability/Climate-Change-and-Financial-Stability/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2D0278060B5EA914A2ABFC2BA442C280D0800B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6A92443-9F9B-48A4-AA23-3B97971787E2}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_2D0278060B5EA914A2ABFC2BA442C280D0800B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33BB2ABA-3E16-45C9-B996-9DA5D70FA00C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Afghanistan" sheetId="1" r:id="rId1"/>
@@ -2019,9 +2019,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2053,7 +2050,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2372,7 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4164,9 +4161,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -14044,9 +14046,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -27972,9 +27977,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -34581,6 +34589,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -50133,6 +50144,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -56456,9 +56470,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -66775,6 +66794,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -78631,6 +78653,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -84453,6 +84478,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
